--- a/Book_genre_dotplot.xlsx
+++ b/Book_genre_dotplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayga\Documents\Data Science Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F1094E-46A4-456E-B9A3-6328A526E45B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A2F3C-667E-48FC-BCCC-407882C66089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F8CB5F8A-5BCF-412A-BC90-68CB348A4712}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="10560" xr2:uid="{F8CB5F8A-5BCF-412A-BC90-68CB348A4712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Book Genre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Mystery</t>
   </si>
@@ -60,6 +57,18 @@
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -129,6 +138,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Book</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Genre</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -161,42 +200,40 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+                <a:extLst>
+                  <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                    <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:pictureOptions>
+            <c:pictureFormat val="stackScale"/>
+          </c:pictureOptions>
+          <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$1:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Book Genre</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>Mystery</c:v>
                 </c:pt>
@@ -223,8 +260,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$9</c:f>
               <c:numCache>
@@ -256,11 +293,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E22-4AE4-BAE0-7B2D164EDB35}"/>
+              <c16:uniqueId val="{00000000-0AC3-450B-B13E-097784724432}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -272,30 +308,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116273375"/>
-        <c:axId val="246235615"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="116273375"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="255418687"/>
+        <c:axId val="366784959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="255418687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -304,8 +329,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -332,12 +357,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246235615"/>
+        <c:crossAx val="366784959"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="246235615"/>
+        <c:axId val="366784959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,14 +391,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -394,9 +416,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116273375"/>
+        <c:crossAx val="255418687"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -491,7 +513,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -518,8 +540,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -620,7 +642,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -652,10 +674,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -695,23 +717,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -816,8 +837,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -949,20 +970,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -976,17 +996,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1011,22 +1020,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7561DF-CA5B-4F63-9AF5-5D26A0093B78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E1A0E6-227B-4AF4-9F02-F655951BAB61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,25 +1353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41312E5C-DC62-40FA-8D2B-6C35344254AD}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1370,7 +1369,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -1378,7 +1377,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>35</v>
@@ -1386,7 +1385,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1394,7 +1393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1402,7 +1401,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -1418,7 +1417,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>25</v>
